--- a/medicine/Pharmacie/Société_de_recherche_contractuelle/Société_de_recherche_contractuelle.xlsx
+++ b/medicine/Pharmacie/Société_de_recherche_contractuelle/Société_de_recherche_contractuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_recherche_contractuelle</t>
+          <t>Société_de_recherche_contractuelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une société ou organisation de recherche contractuelle ou sous contrat[1], souvent abrégé en CRO (issu de l'anglais « contract research organization ») est une entreprise qui fournit, sur une base contractuelle (et donc généralement payante), des services dans le domaine de la recherche biomédicale au profit de l'industrie pharmaceutique ou biotechnologique ainsi que pour les organismes de recherche publics (en France, les EPST) et parapublics (fondations) qui œuvrent dans ce domaine. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une société ou organisation de recherche contractuelle ou sous contrat, souvent abrégé en CRO (issu de l'anglais « contract research organization ») est une entreprise qui fournit, sur une base contractuelle (et donc généralement payante), des services dans le domaine de la recherche biomédicale au profit de l'industrie pharmaceutique ou biotechnologique ainsi que pour les organismes de recherche publics (en France, les EPST) et parapublics (fondations) qui œuvrent dans ce domaine. 
 L'intervention des CRO peut se retrouver à toutes phases de recherche et développement, depuis les études précliniques, jusqu'à la commercialisation et la pharmacovigilance, en passant par la conduite d'essais cliniques ou l'assistance dans la conduite de travaux de recherche. 
-En France, et selon l'Association française des CRO, les deux tiers des activités de recherche clinique sont sous-traitées à des CRO[2].  
-Le 20 septembre 2021, le journal Le Monde publie un article sur les CRO indiquant que ces entreprises gèrent un « marché mondial ayant pour matière première le corps des sujets volontaires, ce qui pose de nombreuses questions éthiques »[3]
+En France, et selon l'Association française des CRO, les deux tiers des activités de recherche clinique sont sous-traitées à des CRO.  
+Le 20 septembre 2021, le journal Le Monde publie un article sur les CRO indiquant que ces entreprises gèrent un « marché mondial ayant pour matière première le corps des sujets volontaires, ce qui pose de nombreuses questions éthiques »
 </t>
         </is>
       </c>
